--- a/pred_ohlcv/54_21/2019-10-29 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 DVP ohlcv.xlsx
@@ -1822,7 +1822,7 @@
         <v>-1782132.89334918</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1780201.64764918</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1771079.64264918</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1771079.64264918</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1801760.99694918</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1801740.99694918</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1970112.08284918</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1970112.08284918</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2797060.50824918</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3395560.50824918</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3369404.71444918</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2774974.65954918</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2873055.541849181</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2872848.794049181</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2872838.794049181</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3436453.976749181</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3803004.870849181</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3764352.852149181</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1814342.852149181</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-548615.4746491805</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1624906.643901448</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1638639.050101448</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2751697.66279598</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3119897.47709598</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2173384.91279598</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2099040.80909598</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2432068.33349598</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2343065.47729598</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2343065.47729598</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2670861.60419598</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2604353.94529598</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2229132.83459598</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2198043.12079598</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2198043.12079598</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2136906.021395979</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1997514.403395979</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1997514.403395979</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1997527.403395979</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1870822.873795979</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1957175.565795979</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1886847.45679598</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2675289.335295979</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2709066.71099598</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>2603852.550995979</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>2623027.923295979</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>2623010.538695979</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>2623021.538695979</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2982364.311795979</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3227280.384095979</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3227280.384095979</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2692958.631095979</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1801473.584195979</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2086703.369095979</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2086703.369095979</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2052035.604595979</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2052035.604595979</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1598149.916157518</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1805912.542957518</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1640064.262957518</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1640064.262957518</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1696682.963957518</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>4690054.618919057</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>9172597.349722583</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>9784157.43611699</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>9946131.512578692</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>8913493.317178693</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>9016440.998278692</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>9016440.998278692</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>9016440.998278692</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>9112651.247478692</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>9112651.247478692</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>9112408.147478692</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>9112408.147478692</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>8686830.413078692</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>8686830.413078692</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>8686830.413078692</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>8169365.413078692</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>7925176.728778692</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 DVP ohlcv.xlsx
@@ -1822,7 +1822,7 @@
         <v>-1782132.89334918</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1780201.64764918</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1771079.64264918</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1771079.64264918</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1801760.99694918</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1801740.99694918</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1970112.08284918</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1970112.08284918</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2797060.50824918</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3395560.50824918</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3369404.71444918</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2774974.65954918</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2873055.541849181</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2872848.794049181</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2872838.794049181</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3436453.976749181</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3803004.870849181</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3803004.870849181</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3802994.870849181</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3878809.654149181</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3878799.654149181</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3878799.654149181</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4113454.387749181</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4191624.656149181</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3643974.71654918</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3905839.60304918</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3942060.494449181</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3764352.852149181</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1814342.852149181</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1666857.722549181</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-548615.4746491805</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1624906.643901448</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1638639.050101448</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2751697.66279598</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3119897.47709598</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2173384.91279598</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2099040.80909598</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2432068.33349598</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2343065.47729598</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2343065.47729598</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2670861.60419598</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2604353.94529598</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2229132.83459598</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2198043.12079598</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2198043.12079598</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2136906.021395979</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1997514.403395979</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1997514.403395979</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1997527.403395979</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1870822.873795979</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1957175.565795979</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1886847.45679598</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2675289.335295979</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2709066.71099598</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>2603852.550995979</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>2623027.923295979</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>2623010.538695979</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>2623021.538695979</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2982364.311795979</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3227280.384095979</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3227280.384095979</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2692958.631095979</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1801473.584195979</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2086703.369095979</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2086703.369095979</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2052035.604595979</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2052035.604595979</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1598149.916157518</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1805912.542957518</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1640064.262957518</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1640064.262957518</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1696682.963957518</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>4690054.618919057</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>9172597.349722583</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>9172597.349722583</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>9172597.349722583</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>10269207.08503127</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>9824028.509431275</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>9673815.56331699</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>9326156.90851699</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>9326156.90851699</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>8923480.097816991</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>9476091.192216991</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>9784157.43611699</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>9946131.512578692</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>8913493.317178693</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>9016440.998278692</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>9016440.998278692</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>9016440.998278692</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>9112651.247478692</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>9112651.247478692</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>9112408.147478692</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>9112408.147478692</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>8686830.413078692</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>8686830.413078692</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>8686830.413078692</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>8169365.413078692</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>7925176.728778692</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>8106340.907378692</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>8180807.976878692</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
